--- a/automate/excel/multiplication.xlsx
+++ b/automate/excel/multiplication.xlsx
@@ -22,13 +22,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -368,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +380,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
@@ -392,8 +419,14 @@
       <c r="F2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
@@ -409,8 +442,14 @@
       <c r="F3" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
@@ -426,8 +465,14 @@
       <c r="F4" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
@@ -443,8 +488,14 @@
       <c r="F5" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
@@ -459,6 +510,32 @@
       </c>
       <c r="F6" t="n">
         <v>25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
